--- a/用例数据/沪A/基金通/场内转托管/清算结果.xlsx
+++ b/用例数据/沪A/基金通/场内转托管/清算结果.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\source\用例数据\沪A\基金通\场内转托管\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19884" windowHeight="9384" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19890" windowHeight="9390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="277">
   <si>
     <t>EXCHID</t>
   </si>
@@ -743,18 +748,9 @@
     <t>BUSINESSCODE</t>
   </si>
   <si>
-    <t>50017</t>
-  </si>
-  <si>
     <t>005_004_001</t>
   </si>
   <si>
-    <t>20211231202731</t>
-  </si>
-  <si>
-    <t>0000</t>
-  </si>
-  <si>
     <t>99990</t>
   </si>
   <si>
@@ -767,12 +763,6 @@
     <t>5.49000000</t>
   </si>
   <si>
-    <t>20211231000000</t>
-  </si>
-  <si>
-    <t>79766364.400</t>
-  </si>
-  <si>
     <t>9400</t>
   </si>
   <si>
@@ -785,9 +775,6 @@
     <t>001</t>
   </si>
   <si>
-    <t>99999</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -803,12 +790,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>000006864355</t>
-  </si>
-  <si>
     <t>NONDVP</t>
   </si>
   <si>
@@ -821,9 +802,6 @@
     <t>1.0000000000</t>
   </si>
   <si>
-    <t>50018</t>
-  </si>
-  <si>
     <t>508001</t>
   </si>
   <si>
@@ -833,38 +811,53 @@
     <t>99.00000000</t>
   </si>
   <si>
-    <t>000006864356</t>
-  </si>
-  <si>
-    <t>50019</t>
-  </si>
-  <si>
     <t>005_003_001</t>
   </si>
   <si>
     <t>1600</t>
   </si>
   <si>
-    <t>000006864357</t>
-  </si>
-  <si>
-    <t>50020</t>
-  </si>
-  <si>
-    <t>000006864358</t>
+    <t>30052671</t>
+  </si>
+  <si>
+    <t>20221007203502</t>
+  </si>
+  <si>
+    <t>20221007000000</t>
+  </si>
+  <si>
+    <t>999736743.280</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>000006907615</t>
+  </si>
+  <si>
+    <t>30052672</t>
+  </si>
+  <si>
+    <t>000006907616</t>
+  </si>
+  <si>
+    <t>30052673</t>
+  </si>
+  <si>
+    <t>000006907617</t>
+  </si>
+  <si>
+    <t>30052674</t>
+  </si>
+  <si>
+    <t>000006907618</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -873,352 +866,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1226,311 +889,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1788,21 +1165,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:86">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2062,7 +1439,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:86">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -2322,7 +1699,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:86">
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>86</v>
       </c>
@@ -2582,39 +1959,38 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:EH11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:EI7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="14.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:138">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>115</v>
       </c>
@@ -3030,27 +2406,24 @@
         <v>241</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:137">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>87</v>
@@ -3080,79 +2453,79 @@
         <v>98</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>99</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="AQ2" s="1" t="s">
-        <v>98</v>
+        <v>269</v>
       </c>
       <c r="AR2" s="1" t="s">
         <v>87</v>
@@ -3161,13 +2534,13 @@
         <v>89</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AU2" s="1" t="s">
         <v>103</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>100</v>
@@ -3176,7 +2549,7 @@
         <v>95</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>86</v>
@@ -3185,19 +2558,19 @@
         <v>86</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="BG2" s="1" t="s">
         <v>86</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="BJ2" s="1" t="s">
         <v>95</v>
@@ -3209,10 +2582,10 @@
         <v>86</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>86</v>
@@ -3224,22 +2597,22 @@
         <v>95</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="BW2" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="BX2" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="BY2" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>262</v>
+        <v>86</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>95</v>
@@ -3257,28 +2630,28 @@
         <v>86</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="CJ2" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>102</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="CT2" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="CV2" s="1" t="s">
         <v>86</v>
       </c>
       <c r="DA2" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="DC2" s="1" t="s">
         <v>95</v>
@@ -3287,16 +2660,16 @@
         <v>95</v>
       </c>
       <c r="DE2" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="DF2" s="1" t="s">
         <v>102</v>
       </c>
       <c r="DG2" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="DK2" s="1" t="s">
         <v>95</v>
@@ -3308,7 +2681,7 @@
         <v>95</v>
       </c>
       <c r="DN2" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="DO2" s="1" t="s">
         <v>95</v>
@@ -3352,28 +2725,28 @@
       <c r="EG2" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="EI2" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:137">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>87</v>
@@ -3388,10 +2761,10 @@
         <v>88</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>97</v>
@@ -3403,22 +2776,22 @@
         <v>98</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>99</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>92</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>95</v>
@@ -3427,7 +2800,7 @@
         <v>95</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>86</v>
@@ -3472,10 +2845,10 @@
         <v>95</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>98</v>
+        <v>269</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>87</v>
@@ -3484,13 +2857,13 @@
         <v>89</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AU3" s="1" t="s">
         <v>103</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="AX3" s="1" t="s">
         <v>100</v>
@@ -3499,7 +2872,7 @@
         <v>95</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>86</v>
@@ -3508,19 +2881,19 @@
         <v>86</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="BG3" s="1" t="s">
         <v>86</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="BJ3" s="1" t="s">
         <v>95</v>
@@ -3532,10 +2905,10 @@
         <v>86</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="BQ3" s="1" t="s">
         <v>86</v>
@@ -3547,22 +2920,22 @@
         <v>95</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="BW3" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="BX3" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="BY3" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>262</v>
+        <v>86</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>95</v>
@@ -3583,25 +2956,25 @@
         <v>272</v>
       </c>
       <c r="CJ3" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="CL3" s="1" t="s">
         <v>102</v>
       </c>
       <c r="CR3" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="CT3" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="CV3" s="1" t="s">
         <v>86</v>
       </c>
       <c r="DA3" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="DC3" s="1" t="s">
         <v>95</v>
@@ -3610,16 +2983,16 @@
         <v>95</v>
       </c>
       <c r="DE3" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="DF3" s="1" t="s">
         <v>102</v>
       </c>
       <c r="DG3" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="DJ3" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="DK3" s="1" t="s">
         <v>95</v>
@@ -3631,7 +3004,7 @@
         <v>95</v>
       </c>
       <c r="DN3" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="DO3" s="1" t="s">
         <v>95</v>
@@ -3675,28 +3048,28 @@
       <c r="EG3" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="EI3" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:137">
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>273</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>87</v>
@@ -3726,22 +3099,22 @@
         <v>98</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>99</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>95</v>
@@ -3750,7 +3123,7 @@
         <v>95</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>107</v>
@@ -3795,10 +3168,10 @@
         <v>95</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>98</v>
+        <v>269</v>
       </c>
       <c r="AR4" s="1" t="s">
         <v>87</v>
@@ -3807,13 +3180,13 @@
         <v>89</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AU4" s="1" t="s">
         <v>103</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="AX4" s="1" t="s">
         <v>100</v>
@@ -3822,7 +3195,7 @@
         <v>95</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="BA4" s="1" t="s">
         <v>86</v>
@@ -3831,19 +3204,19 @@
         <v>86</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="BF4" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="BG4" s="1" t="s">
         <v>86</v>
       </c>
       <c r="BH4" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="BI4" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="BJ4" s="1" t="s">
         <v>95</v>
@@ -3855,10 +3228,10 @@
         <v>86</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="BQ4" s="1" t="s">
         <v>86</v>
@@ -3870,22 +3243,22 @@
         <v>95</v>
       </c>
       <c r="BT4" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="BV4" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="BW4" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="BX4" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="BY4" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>262</v>
+        <v>86</v>
       </c>
       <c r="CA4" s="1" t="s">
         <v>95</v>
@@ -3903,28 +3276,28 @@
         <v>86</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="CJ4" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="CK4" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="CL4" s="1" t="s">
         <v>102</v>
       </c>
       <c r="CR4" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="CT4" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="CV4" s="1" t="s">
         <v>86</v>
       </c>
       <c r="DA4" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="DC4" s="1" t="s">
         <v>95</v>
@@ -3933,16 +3306,16 @@
         <v>95</v>
       </c>
       <c r="DE4" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="DF4" s="1" t="s">
         <v>102</v>
       </c>
       <c r="DG4" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="DJ4" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="DK4" s="1" t="s">
         <v>95</v>
@@ -3954,7 +3327,7 @@
         <v>95</v>
       </c>
       <c r="DN4" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="DO4" s="1" t="s">
         <v>95</v>
@@ -3998,28 +3371,28 @@
       <c r="EG4" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="EI4" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:137">
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>87</v>
@@ -4049,13 +3422,13 @@
         <v>98</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>99</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>92</v>
@@ -4064,7 +3437,7 @@
         <v>93</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>95</v>
@@ -4073,7 +3446,7 @@
         <v>95</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>92</v>
@@ -4118,10 +3491,10 @@
         <v>95</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>98</v>
+        <v>269</v>
       </c>
       <c r="AR5" s="1" t="s">
         <v>87</v>
@@ -4130,13 +3503,13 @@
         <v>89</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AU5" s="1" t="s">
         <v>103</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="AX5" s="1" t="s">
         <v>100</v>
@@ -4145,7 +3518,7 @@
         <v>95</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="BA5" s="1" t="s">
         <v>86</v>
@@ -4154,19 +3527,19 @@
         <v>86</v>
       </c>
       <c r="BC5" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="BF5" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="BG5" s="1" t="s">
         <v>86</v>
       </c>
       <c r="BH5" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="BI5" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="BJ5" s="1" t="s">
         <v>95</v>
@@ -4178,10 +3551,10 @@
         <v>86</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="BQ5" s="1" t="s">
         <v>86</v>
@@ -4193,22 +3566,22 @@
         <v>95</v>
       </c>
       <c r="BT5" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="BV5" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="BW5" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="BX5" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="BY5" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>262</v>
+        <v>86</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>95</v>
@@ -4226,28 +3599,28 @@
         <v>86</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="CJ5" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="CK5" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="CL5" s="1" t="s">
         <v>102</v>
       </c>
       <c r="CR5" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="CT5" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="CV5" s="1" t="s">
         <v>86</v>
       </c>
       <c r="DA5" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="DC5" s="1" t="s">
         <v>95</v>
@@ -4256,16 +3629,16 @@
         <v>95</v>
       </c>
       <c r="DE5" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="DF5" s="1" t="s">
         <v>102</v>
       </c>
       <c r="DG5" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="DJ5" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="DK5" s="1" t="s">
         <v>95</v>
@@ -4277,7 +3650,7 @@
         <v>95</v>
       </c>
       <c r="DN5" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="DO5" s="1" t="s">
         <v>95</v>
@@ -4321,15 +3694,14 @@
       <c r="EG5" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="EI5" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/用例数据/沪A/基金通/场内转托管/清算结果.xlsx
+++ b/用例数据/沪A/基金通/场内转托管/清算结果.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="280">
   <si>
     <t>EXCHID</t>
   </si>
@@ -859,13 +859,16 @@
   <si>
     <t>5</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCB1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -888,6 +891,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -897,7 +906,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -905,14 +914,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1998,8 +2025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BN1" workbookViewId="0">
-      <selection activeCell="CC20" sqref="CC20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2007,7 +2034,7 @@
     <col min="10" max="10" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>115</v>
       </c>
@@ -2423,7 +2450,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>265</v>
       </c>
@@ -2442,6 +2469,9 @@
       <c r="F2" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="I2" s="3" t="s">
+        <v>279</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>87</v>
       </c>
@@ -2746,7 +2776,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>271</v>
       </c>
@@ -2765,6 +2795,9 @@
       <c r="F3" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="I3" s="3" t="s">
+        <v>279</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>87</v>
       </c>
@@ -3069,7 +3102,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>273</v>
       </c>
@@ -3088,6 +3121,9 @@
       <c r="F4" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="I4" s="3" t="s">
+        <v>279</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>87</v>
       </c>
@@ -3392,7 +3428,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>275</v>
       </c>
@@ -3410,6 +3446,9 @@
       </c>
       <c r="F5" s="1" t="s">
         <v>86</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>279</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>87</v>
@@ -3720,5 +3759,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/用例数据/沪A/基金通/场内转托管/清算结果.xlsx
+++ b/用例数据/沪A/基金通/场内转托管/清算结果.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="279">
   <si>
     <t>EXCHID</t>
   </si>
@@ -851,13 +851,21 @@
   </si>
   <si>
     <t>000006907618</t>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -867,6 +875,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -893,9 +909,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1981,8 +1998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="BN1" workbookViewId="0">
+      <selection activeCell="CC20" sqref="CC20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2611,8 +2628,8 @@
       <c r="BY2" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="BZ2" s="1" t="s">
-        <v>86</v>
+      <c r="BZ2" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>95</v>
@@ -2934,8 +2951,8 @@
       <c r="BY3" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="BZ3" s="1" t="s">
-        <v>86</v>
+      <c r="BZ3" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>95</v>
@@ -3257,8 +3274,8 @@
       <c r="BY4" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="BZ4" s="1" t="s">
-        <v>86</v>
+      <c r="BZ4" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="CA4" s="1" t="s">
         <v>95</v>
@@ -3580,8 +3597,8 @@
       <c r="BY5" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="BZ5" s="1" t="s">
-        <v>86</v>
+      <c r="BZ5" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>95</v>

--- a/用例数据/沪A/基金通/场内转托管/清算结果.xlsx
+++ b/用例数据/沪A/基金通/场内转托管/清算结果.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19890" windowHeight="9390" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19896" windowHeight="9396" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="281">
   <si>
     <t>EXCHID</t>
   </si>
@@ -862,6 +862,10 @@
   </si>
   <si>
     <t>CCB1</t>
+  </si>
+  <si>
+    <t>A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1221,9 +1225,9 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1483,7 +1487,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -1743,7 +1747,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>86</v>
       </c>
@@ -2003,17 +2007,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2025,16 +2029,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:139" s="1" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>115</v>
       </c>
@@ -2450,7 +2455,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:139" s="1" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>265</v>
       </c>
@@ -2572,7 +2577,7 @@
         <v>248</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="AR2" s="1" t="s">
         <v>87</v>
@@ -2776,7 +2781,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:139" s="1" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>271</v>
       </c>
@@ -3102,7 +3107,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:139" s="1" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>273</v>
       </c>
@@ -3428,7 +3433,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:139" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:139" s="1" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>275</v>
       </c>
@@ -3754,8 +3759,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/用例数据/沪A/基金通/场内转托管/清算结果.xlsx
+++ b/用例数据/沪A/基金通/场内转托管/清算结果.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19896" windowHeight="9396" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19896" windowHeight="9396" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -829,9 +829,6 @@
     <t>999736743.280</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>000006907615</t>
   </si>
   <si>
@@ -864,7 +861,24 @@
     <t>CCB1</t>
   </si>
   <si>
-    <t>A2</t>
+    <t>A0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2029,7 +2043,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AX7" sqref="AX7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2475,7 +2491,7 @@
         <v>86</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>87</v>
@@ -2577,7 +2593,7 @@
         <v>248</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AR2" s="1" t="s">
         <v>87</v>
@@ -2600,8 +2616,8 @@
       <c r="AY2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AZ2" s="1" t="s">
-        <v>243</v>
+      <c r="AZ2" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>86</v>
@@ -2664,7 +2680,7 @@
         <v>251</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>95</v>
@@ -2682,7 +2698,7 @@
         <v>86</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>252</v>
@@ -2783,7 +2799,7 @@
     </row>
     <row r="3" spans="1:139" s="1" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>242</v>
@@ -2801,7 +2817,7 @@
         <v>86</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>87</v>
@@ -2903,7 +2919,7 @@
         <v>248</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>87</v>
@@ -2926,8 +2942,8 @@
       <c r="AY3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AZ3" s="1" t="s">
-        <v>243</v>
+      <c r="AZ3" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>86</v>
@@ -2990,7 +3006,7 @@
         <v>251</v>
       </c>
       <c r="BZ3" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>95</v>
@@ -3008,7 +3024,7 @@
         <v>86</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>252</v>
@@ -3109,7 +3125,7 @@
     </row>
     <row r="4" spans="1:139" s="1" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>263</v>
@@ -3127,7 +3143,7 @@
         <v>86</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>87</v>
@@ -3229,7 +3245,7 @@
         <v>248</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="AR4" s="1" t="s">
         <v>87</v>
@@ -3252,8 +3268,8 @@
       <c r="AY4" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AZ4" s="1" t="s">
-        <v>243</v>
+      <c r="AZ4" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="BA4" s="1" t="s">
         <v>86</v>
@@ -3316,7 +3332,7 @@
         <v>251</v>
       </c>
       <c r="BZ4" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="CA4" s="1" t="s">
         <v>95</v>
@@ -3334,7 +3350,7 @@
         <v>86</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="CJ4" s="1" t="s">
         <v>252</v>
@@ -3435,7 +3451,7 @@
     </row>
     <row r="5" spans="1:139" s="1" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>263</v>
@@ -3453,7 +3469,7 @@
         <v>86</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>87</v>
@@ -3555,7 +3571,7 @@
         <v>248</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="AR5" s="1" t="s">
         <v>87</v>
@@ -3578,8 +3594,8 @@
       <c r="AY5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AZ5" s="1" t="s">
-        <v>243</v>
+      <c r="AZ5" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="BA5" s="1" t="s">
         <v>86</v>
@@ -3642,7 +3658,7 @@
         <v>251</v>
       </c>
       <c r="BZ5" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>95</v>
@@ -3660,7 +3676,7 @@
         <v>86</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="CJ5" s="1" t="s">
         <v>252</v>
